--- a/Web/Content/example/ParkingExample.xlsx
+++ b/Web/Content/example/ParkingExample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi20\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44152782-239E-4E42-A863-B16ECB07D33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12470" yWindow="6750" windowWidth="14400" windowHeight="7670" xr2:uid="{095052F5-7ACE-4EC0-B3A0-8534369A64D1}"/>
+    <workbookView xWindow="12465" yWindow="6750" windowWidth="14400" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>停車場名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +54,22 @@
   </si>
   <si>
     <t>台北市南港區經貿二路88巷1號</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5767563-24a4-4bd9-91dc-c3ae4e007782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,56 +430,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1C8F02-D1EB-4A0E-8940-1C7DB26B4B16}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>121.61432499999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25.057755</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>43949</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>73050</v>
       </c>
     </row>

--- a/Web/Content/example/ParkingExample.xlsx
+++ b/Web/Content/example/ParkingExample.xlsx
@@ -434,59 +434,59 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>121.61432499999999</v>
+      </c>
+      <c r="D2">
+        <v>25.057755</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43949</v>
+      </c>
+      <c r="F2" s="1">
+        <v>73050</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>121.61432499999999</v>
-      </c>
-      <c r="E2">
-        <v>25.057755</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43949</v>
-      </c>
-      <c r="G2" s="1">
-        <v>73050</v>
       </c>
     </row>
   </sheetData>
